--- a/biology/Botanique/Hibiscus_coulteri/Hibiscus_coulteri.xlsx
+++ b/biology/Botanique/Hibiscus_coulteri/Hibiscus_coulteri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hibiscus coulteri est une espèce végétale de la famille des Malvaceae, originaire du sud-ouest des États-Unis et du nord du Mexique.
 </t>
@@ -513,11 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cette plante arbustive pouvant atteindre 1,20 m de hauteur est couverte de poils rudes. Les feuilles les plus basses sont ovales et entières, les plus hautes sont divisées en trois lobes étroits, grossièrement dentés[1].
-Appareil reproducteur
-La floraison a lieu entre avril et août, mais peut survenir tout au long de l'année si les conditions de chaleur et d'humidité le permettent.
-Les fleurs apparaissent isolées au sommet des rameaux. Elles ont un diamètre de 2,5 à 5 cm et ont une forme de bol[1]. Leur corolle, composée de cinq pétales larges de couleur crème ou jaune pâle est souvent teintée de rouge au centre. Les étamines nombreuses se joignent à leur base pour former un tube au travers duquel passe le style.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante arbustive pouvant atteindre 1,20 m de hauteur est couverte de poils rudes. Les feuilles les plus basses sont ovales et entières, les plus hautes sont divisées en trois lobes étroits, grossièrement dentés.
 </t>
         </is>
       </c>
@@ -543,13 +557,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
+          <t>Description morphologique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hibiscus coulteri vit dans le sud-ouest des États-Unis et dans le nord du Mexique. La limite nord de son aire de répartition va du sud de l'Arizona à l'ouest du Texas.
-Elle pousse dans les zones désertiques broussailleuses, sur les collines ou dans les canyons.
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu entre avril et août, mais peut survenir tout au long de l'année si les conditions de chaleur et d'humidité le permettent.
+Les fleurs apparaissent isolées au sommet des rameaux. Elles ont un diamètre de 2,5 à 5 cm et ont une forme de bol. Leur corolle, composée de cinq pétales larges de couleur crème ou jaune pâle est souvent teintée de rouge au centre. Les étamines nombreuses se joignent à leur base pour former un tube au travers duquel passe le style.
 </t>
         </is>
       </c>
@@ -575,10 +595,46 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hibiscus coulteri vit dans le sud-ouest des États-Unis et dans le nord du Mexique. La limite nord de son aire de répartition va du sud de l'Arizona à l'ouest du Texas.
+Elle pousse dans les zones désertiques broussailleuses, sur les collines ou dans les canyons.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hibiscus_coulteri</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hibiscus_coulteri</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
